--- a/src/data/AlcocholeList.xlsx
+++ b/src/data/AlcocholeList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\React\my-app\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABA57E4-E0DD-4B82-9011-E72F89428960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA322418-7346-4A21-9E55-ACB3C0E8A65B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{931606CE-8AF3-4AD1-8A9A-5D1C3A800B74}"/>
+    <workbookView xWindow="38295" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{931606CE-8AF3-4AD1-8A9A-5D1C3A800B74}"/>
   </bookViews>
   <sheets>
     <sheet name="술 종류" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="330">
   <si>
     <t>술 종류</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1308,19 +1308,63 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>기타 주류</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>강화주, 칵테일, 하이볼 등</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>쇼츄(일본주)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>사케(일본주)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>메드(Mead)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이더(Cider)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아브생트</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아쿠아비트</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>바이주</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>피스코</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그라파</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>우조</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐시</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>칵테일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>하이볼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>강화주</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>베르무트</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1452,7 +1496,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1621,6 +1665,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1633,7 +1714,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1752,6 +1833,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2097,10 +2187,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E68E5D6-A96E-4009-B37A-B927ED21AAD1}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2156,7 +2246,7 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="27"/>
       <c r="B5" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -2174,11 +2264,9 @@
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
-        <v>5</v>
-      </c>
+      <c r="A7" s="27"/>
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>317</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -2188,7 +2276,7 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="27"/>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>318</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -2196,9 +2284,11 @@
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
+      <c r="A9" s="27" t="s">
+        <v>5</v>
+      </c>
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -2208,7 +2298,7 @@
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="27"/>
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -2218,7 +2308,7 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="27"/>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -2228,7 +2318,7 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="27"/>
       <c r="B12" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -2238,7 +2328,7 @@
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="27"/>
       <c r="B13" s="2" t="s">
-        <v>317</v>
+        <v>10</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -2248,49 +2338,172 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="27"/>
       <c r="B14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>13</v>
-      </c>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="27"/>
       <c r="B15" s="2" t="s">
-        <v>14</v>
+        <v>315</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>15</v>
-      </c>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="27"/>
       <c r="B16" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>316</v>
-      </c>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="27"/>
+      <c r="B17" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="27"/>
+      <c r="B18" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="27"/>
+      <c r="B19" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="27"/>
+      <c r="B20" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="27"/>
+      <c r="B21" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="27"/>
+      <c r="B22" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="27"/>
+      <c r="B23" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="41"/>
+      <c r="B25" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="41"/>
+      <c r="B26" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="41"/>
+      <c r="B27" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="42"/>
+      <c r="B28" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A14"/>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A23"/>
+    <mergeCell ref="A24:A28"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
